--- a/tables/Вокзал Петрозаводск.xlsx
+++ b/tables/Вокзал Петрозаводск.xlsx
@@ -530,22 +530,22 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>12.5%</t>
+          <t>12,5%</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>12.5%</t>
+          <t>12,5%</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>12.5%</t>
+          <t>12,5%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>37.5%</t>
+          <t>37,5%</t>
         </is>
       </c>
     </row>
@@ -572,12 +572,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>12.5%</t>
+          <t>12,5%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>87.5%</t>
+          <t>87,5%</t>
         </is>
       </c>
     </row>
@@ -589,22 +589,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>12.5%</t>
+          <t>12,5%</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>12.5%</t>
+          <t>12,5%</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>12.5%</t>
+          <t>12,5%</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>12.5%</t>
+          <t>12,5%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -631,12 +631,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>12.5%</t>
+          <t>12,5%</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>12.5%</t>
+          <t>12,5%</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -653,22 +653,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>12.5%</t>
+          <t>12,5%</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>12.5%</t>
+          <t>12,5%</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>12.5%</t>
+          <t>12,5%</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>12.5%</t>
+          <t>12,5%</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -685,22 +685,22 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>12.5%</t>
+          <t>12,5%</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>12.5%</t>
+          <t>12,5%</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>12.5%</t>
+          <t>12,5%</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>12.5%</t>
+          <t>12,5%</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -722,22 +722,22 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>12.5%</t>
+          <t>12,5%</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>12.5%</t>
+          <t>12,5%</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>12.5%</t>
+          <t>12,5%</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>37.5%</t>
+          <t>37,5%</t>
         </is>
       </c>
     </row>
@@ -754,12 +754,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>12.5%</t>
+          <t>12,5%</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>12.5%</t>
+          <t>12,5%</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -781,22 +781,22 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>12.5%</t>
+          <t>12,5%</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>12.5%</t>
+          <t>12,5%</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>12.5%</t>
+          <t>12,5%</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>12.5%</t>
+          <t>12,5%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -813,22 +813,22 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>12.5%</t>
+          <t>12,5%</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>12.5%</t>
+          <t>12,5%</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>12.5%</t>
+          <t>12,5%</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>12.5%</t>
+          <t>12,5%</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
